--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7ADEB9-39BB-4AFC-A27D-9C5177D85F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4057BD65-6422-486A-80EC-968B625662C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="19992" windowHeight="13224" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="景勝区（けいしょうく）" sheetId="6" r:id="rId5"/>
     <sheet name="く" sheetId="4" r:id="rId6"/>
     <sheet name="道の駅（みちのえき）" sheetId="1" r:id="rId7"/>
+    <sheet name="句形（くけい）" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="624">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -845,10 +846,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>こうく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>船</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1342,10 +1339,6 @@
   </si>
   <si>
     <t>木造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>もくぞ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2749,6 +2742,50 @@
   </si>
   <si>
     <t>会｜かい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうくう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうしゃけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗車券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸送費用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆそうひよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もくぞう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵便局は銀行と図書館の間「あいだ」にあります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょこうさき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいしちょうそうさ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3178,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A4099-E104-4D40-ACC8-DFB3AF02A6D2}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3199,7 +3236,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3215,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
@@ -3230,7 +3267,7 @@
         <v>52</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>51</v>
@@ -3268,7 +3305,7 @@
         <v>45</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -3283,7 +3320,7 @@
         <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
@@ -3298,18 +3335,18 @@
         <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>32</v>
@@ -3321,7 +3358,7 @@
         <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3338,7 +3375,7 @@
         <v>56</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>58</v>
@@ -3358,7 +3395,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>125</v>
@@ -3373,32 +3410,32 @@
         <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="F9" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="L9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="H10" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>53</v>
@@ -3412,10 +3449,10 @@
         <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>127</v>
@@ -3432,10 +3469,10 @@
         <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>47</v>
@@ -3444,7 +3481,7 @@
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3464,19 +3501,19 @@
         <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3484,19 +3521,19 @@
         <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N14" t="s">
         <v>391</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N14" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3504,27 +3541,27 @@
         <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="L16" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="N16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -3538,7 +3575,7 @@
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -3546,10 +3583,10 @@
         <v>60</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -3557,10 +3594,10 @@
         <v>61</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -3568,10 +3605,10 @@
         <v>75</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -3579,31 +3616,31 @@
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C22" t="s">
         <v>525</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C22" t="s">
-        <v>527</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -3616,8 +3653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3640,29 +3677,29 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" t="s">
         <v>475</v>
       </c>
-      <c r="B1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C1" t="s">
-        <v>477</v>
-      </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N1" s="1"/>
       <c r="Q1" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -3673,44 +3710,44 @@
         <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>121</v>
@@ -3719,109 +3756,109 @@
         <v>122</v>
       </c>
       <c r="I3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" t="s">
         <v>189</v>
       </c>
-      <c r="J3" t="s">
-        <v>190</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="Q4" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -3831,34 +3868,34 @@
         <v>74</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -3875,96 +3912,96 @@
         <v>94</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -3975,30 +4012,30 @@
         <v>172</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -4009,13 +4046,13 @@
         <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -4038,7 +4075,7 @@
         <v>110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -4049,42 +4086,42 @@
         <v>114</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C17" t="s">
         <v>538</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="C17" t="s">
-        <v>540</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="G17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O17" t="s">
         <v>346</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="O17" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4095,33 +4132,33 @@
         <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O18" t="s">
         <v>372</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="O18" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4132,83 +4169,83 @@
         <v>89</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>98</v>
@@ -4220,24 +4257,24 @@
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>171</v>
@@ -4248,13 +4285,13 @@
     </row>
     <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="C28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4267,77 +4304,77 @@
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E30" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="E31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>112</v>
@@ -4346,102 +4383,102 @@
         <v>111</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" t="s">
         <v>363</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C36" t="s">
-        <v>365</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
         <v>264</v>
-      </c>
-      <c r="G36" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C40" t="s">
         <v>545</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C40" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C42" t="s">
         <v>597</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C42" t="s">
-        <v>599</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>70</v>
@@ -4452,13 +4489,13 @@
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -4469,10 +4506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61569998-1771-4F04-B2BD-E982DB6F687B}">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4484,7 +4521,7 @@
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -4492,19 +4529,19 @@
         <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>175</v>
       </c>
@@ -4515,16 +4552,16 @@
         <v>179</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>180</v>
+        <v>613</v>
       </c>
       <c r="H3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>177</v>
       </c>
@@ -4538,116 +4575,122 @@
         <v>122</v>
       </c>
       <c r="H4" t="s">
+        <v>582</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="K7" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="L7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="H8" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -4655,120 +4698,126 @@
         <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K10" t="s">
+        <v>616</v>
+      </c>
+      <c r="L10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="J13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="J13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="D15" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4831,7 @@
   <dimension ref="A3:N14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4795,16 +4844,16 @@
   <sheetData>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>618</v>
       </c>
       <c r="D3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>72</v>
@@ -4813,18 +4862,18 @@
         <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>306</v>
+      <c r="A4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>76</v>
@@ -4836,27 +4885,27 @@
         <v>78</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="N4" t="s">
         <v>435</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="N4" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>108</v>
@@ -4865,163 +4914,163 @@
         <v>107</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="K6" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F9" t="s">
         <v>383</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" t="s">
         <v>603</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C14" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -5032,10 +5081,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16E99B6-C8E9-4718-AE00-BC0A25161C6A}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5047,61 +5096,69 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
         <v>227</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5164,10 +5221,10 @@
         <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -5178,10 +5235,10 @@
         <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -5192,10 +5249,10 @@
         <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -5206,10 +5263,10 @@
         <v>163</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -5220,10 +5277,10 @@
         <v>164</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -5233,6 +5290,12 @@
       <c r="B9" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -5244,7 +5307,7 @@
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>168</v>
@@ -5348,8 +5411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5459,10 +5522,10 @@
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -5475,122 +5538,143 @@
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>7</v>
+      <c r="A18" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>273</v>
+        <v>436</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>274</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>529</v>
+        <v>623</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016684FE-987B-4D5C-8A7A-D8EBFEA4FE32}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4057BD65-6422-486A-80EC-968B625662C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C2A734-6D9E-4C9E-BED5-F27E7C559810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="634">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,10 +249,6 @@
   </si>
   <si>
     <t>一生そばにいるから 一生そばにいて</t>
-  </si>
-  <si>
-    <t>すぐ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>隅</t>
@@ -2786,6 +2782,50 @@
   </si>
   <si>
     <t>けいしちょうそうさ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じんしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社｜しゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>であい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邂逅，相遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れんけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>場合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばあい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3216,7 +3256,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3236,7 +3276,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3244,7 +3284,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3252,7 +3292,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
@@ -3264,13 +3304,10 @@
         <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>52</v>
+        <v>626</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>51</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3281,7 +3318,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -3290,7 +3327,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -3305,22 +3342,22 @@
         <v>45</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
@@ -3335,18 +3372,18 @@
         <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>32</v>
@@ -3358,7 +3395,7 @@
         <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3369,16 +3406,16 @@
         <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3395,13 +3432,13 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="L8" t="s">
         <v>42</v>
@@ -3410,38 +3447,41 @@
         <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>368</v>
+        <v>367</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="F9" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="L9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="H10" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3449,19 +3489,19 @@
         <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="L11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3469,10 +3509,10 @@
         <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>47</v>
@@ -3481,7 +3521,7 @@
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3492,7 +3532,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
@@ -3501,19 +3541,19 @@
         <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="L13" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3521,19 +3561,19 @@
         <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="L14" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" t="s">
         <v>390</v>
-      </c>
-      <c r="N14" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3541,32 +3581,32 @@
         <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="L15" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="L16" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N16" t="s">
         <v>402</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="N16" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>22</v>
@@ -3575,40 +3615,40 @@
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -3616,31 +3656,31 @@
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>524</v>
-      </c>
-      <c r="C22" t="s">
-        <v>525</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -3651,10 +3691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="A1:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3677,825 +3717,856 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" t="s">
         <v>473</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>474</v>
       </c>
-      <c r="C1" t="s">
-        <v>475</v>
-      </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N1" s="1"/>
       <c r="Q1" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>548</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>540</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="I3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
         <v>188</v>
       </c>
-      <c r="J3" t="s">
-        <v>189</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="Q3" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="Q4" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="Q5" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>561</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>625</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="I9" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="I10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="M11" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="M12" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="M13" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="M15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="O15" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="M16" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="O16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" t="s">
         <v>537</v>
       </c>
-      <c r="C17" t="s">
-        <v>538</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="G17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" t="s">
         <v>345</v>
-      </c>
-      <c r="O17" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="M18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" t="s">
         <v>371</v>
-      </c>
-      <c r="O18" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="E19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="M20" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="O20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>554</v>
-      </c>
       <c r="E26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>556</v>
-      </c>
       <c r="E27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C28" t="s">
         <v>557</v>
-      </c>
-      <c r="C28" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="E31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="E33" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" t="s">
         <v>362</v>
       </c>
-      <c r="C36" t="s">
-        <v>363</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" t="s">
         <v>263</v>
-      </c>
-      <c r="G36" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="E38" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>542</v>
-      </c>
       <c r="E39" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" t="s">
         <v>544</v>
-      </c>
-      <c r="C40" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="E41" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" t="s">
         <v>596</v>
       </c>
-      <c r="C42" t="s">
-        <v>597</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C43" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>631</v>
+      </c>
       <c r="E44" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>612</v>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -4523,301 +4594,301 @@
   <sheetData>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H4" t="s">
+        <v>581</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="H5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="H6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="H8" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="H9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="H10" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="K10" t="s">
+        <v>615</v>
+      </c>
+      <c r="L10" t="s">
         <v>616</v>
-      </c>
-      <c r="L10" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="H11" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="H12" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="D13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" t="s">
         <v>551</v>
-      </c>
-      <c r="J13" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="H14" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="18" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4831,7 +4902,7 @@
   <dimension ref="A3:N14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4844,233 +4915,233 @@
   <sheetData>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
+        <v>447</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" t="s">
         <v>434</v>
-      </c>
-      <c r="N4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="K5" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="K6" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="H8" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
         <v>382</v>
-      </c>
-      <c r="F9" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>602</v>
-      </c>
-      <c r="C14" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5096,69 +5167,69 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
         <v>226</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>227</v>
-      </c>
-      <c r="C2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5184,221 +5255,221 @@
   <sheetData>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
         <v>138</v>
       </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5411,7 +5482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -5419,18 +5490,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -5439,10 +5510,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
         <v>81</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -5453,10 +5524,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -5467,10 +5538,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -5481,10 +5552,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -5505,107 +5576,107 @@
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.45">
@@ -5618,39 +5689,39 @@
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5671,10 +5742,10 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C2A734-6D9E-4C9E-BED5-F27E7C559810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31344932-88F7-44A4-9A54-B5CD305E2F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="636">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2826,6 +2826,14 @@
   </si>
   <si>
     <t>ばあい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいじょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3691,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="A1:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4567,6 +4575,14 @@
       </c>
       <c r="B45" s="1" t="s">
         <v>633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31344932-88F7-44A4-9A54-B5CD305E2F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31489C28-ED42-4A8E-814C-733669ACA8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="647">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2836,12 +2836,75 @@
     <t>かいじょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>番地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばんち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とこや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理发店）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八百屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やおや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（蔬菜店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2948,6 +3011,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2969,7 +3040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2981,6 +3052,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3699,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4060,10 +4132,10 @@
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>645</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>646</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>426</v>
@@ -4080,10 +4152,10 @@
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>533</v>
+        <v>170</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>534</v>
+        <v>171</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>495</v>
@@ -4094,10 +4166,10 @@
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>534</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>221</v>
@@ -4111,10 +4183,10 @@
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>122</v>
@@ -4134,10 +4206,10 @@
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>341</v>
@@ -4151,10 +4223,10 @@
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>536</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C17" t="s">
         <v>537</v>
@@ -4180,10 +4252,10 @@
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>535</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>579</v>
@@ -4203,10 +4275,13 @@
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>501</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>502</v>
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>393</v>
@@ -4214,13 +4289,22 @@
       <c r="F19" s="1" t="s">
         <v>394</v>
       </c>
+      <c r="M19" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>501</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>502</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>217</v>
@@ -4229,21 +4313,21 @@
         <v>218</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>349</v>
+        <v>642</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="O20" t="s">
-        <v>184</v>
+        <v>643</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>571</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>572</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>219</v>
@@ -4254,10 +4338,10 @@
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>313</v>
+        <v>571</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>332</v>
@@ -4265,21 +4349,30 @@
       <c r="F22" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="M22" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O22" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>315</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>213</v>
@@ -4296,10 +4389,10 @@
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>499</v>
+        <v>372</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>97</v>
@@ -4310,11 +4403,11 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>553</v>
+      <c r="A26" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>181</v>
@@ -4324,11 +4417,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>554</v>
+      <c r="A27" s="10" t="s">
+        <v>552</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>170</v>
@@ -4337,31 +4430,31 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C28" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>114</v>
+    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>236</v>
@@ -4375,10 +4468,10 @@
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>243</v>
@@ -4389,10 +4482,10 @@
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>252</v>
@@ -4403,10 +4496,10 @@
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>577</v>
@@ -4417,18 +4510,18 @@
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>288</v>
+        <v>395</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>111</v>
@@ -4442,10 +4535,10 @@
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="C36" t="s">
         <v>362</v>
@@ -4462,18 +4555,18 @@
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>475</v>
+        <v>360</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>476</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>334</v>
@@ -4486,11 +4579,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>541</v>
+      <c r="A39" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>330</v>
@@ -4501,21 +4594,21 @@
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C40" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>563</v>
+      <c r="A41" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>543</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>568</v>
@@ -4526,10 +4619,10 @@
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="C42" t="s">
         <v>596</v>
@@ -4543,10 +4636,10 @@
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="C43" t="s">
         <v>629</v>
@@ -4554,10 +4647,10 @@
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>609</v>
@@ -4571,18 +4664,34 @@
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31489C28-ED42-4A8E-814C-733669ACA8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25476985-D72B-416F-A1AB-325F4EA60069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="651">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2897,6 +2897,22 @@
   </si>
   <si>
     <t>てら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうきゃく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3336,7 +3352,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3674,6 +3690,12 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="H16" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="L16" s="1" t="s">
         <v>401</v>
       </c>
@@ -3773,8 +3795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4702,10 +4724,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61569998-1771-4F04-B2BD-E982DB6F687B}">
-  <dimension ref="A2:L17"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5016,6 +5038,14 @@
         <v>492</v>
       </c>
     </row>
+    <row r="18" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5027,7 +5057,7 @@
   <dimension ref="A3:N14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25476985-D72B-416F-A1AB-325F4EA60069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A7320E-640B-45D0-8C84-3C2A43EA4541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="662">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2913,6 +2913,72 @@
   </si>
   <si>
     <t>じょうきゃく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各駅停車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくえきていしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急行列車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうこうれっしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょくせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>間接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗り返す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のりかえす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>乘）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3352,7 +3418,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3710,6 +3776,12 @@
       <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="L17" s="1" t="s">
         <v>22</v>
       </c>
@@ -3723,6 +3795,12 @@
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>59</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>588</v>
@@ -4727,7 +4805,7 @@
   <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4792,11 +4870,14 @@
       <c r="E4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H4" t="s">
-        <v>581</v>
+      <c r="H4" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>582</v>
+        <v>660</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4812,11 +4893,11 @@
       <c r="E5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>391</v>
+      <c r="H5" t="s">
+        <v>581</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>392</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4833,10 +4914,10 @@
         <v>276</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4856,13 +4937,10 @@
         <v>301</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>583</v>
+        <v>386</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>614</v>
+        <v>387</v>
       </c>
       <c r="L7" t="s">
         <v>613</v>
@@ -4882,10 +4960,13 @@
         <v>206</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>397</v>
+        <v>583</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>398</v>
+        <v>584</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4902,10 +4983,10 @@
         <v>455</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4922,13 +5003,10 @@
         <v>457</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>477</v>
+        <v>399</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="K10" t="s">
-        <v>615</v>
+        <v>400</v>
       </c>
       <c r="L10" t="s">
         <v>616</v>
@@ -4948,10 +5026,13 @@
         <v>459</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
+      </c>
+      <c r="K11" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4968,10 +5049,10 @@
         <v>461</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4988,13 +5069,10 @@
         <v>463</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="J13" t="s">
-        <v>551</v>
+        <v>489</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5005,13 +5083,13 @@
         <v>465</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>599</v>
+        <v>549</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="J14" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5021,6 +5099,15 @@
       <c r="E15" s="1" t="s">
         <v>467</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
@@ -5029,21 +5116,39 @@
       <c r="E16" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="H16" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="18" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
         <v>491</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="H17" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="18" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
         <v>649</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>650</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A7320E-640B-45D0-8C84-3C2A43EA4541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A69CF-3A6F-4856-B5F6-B6B7F6982E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="677">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2979,6 +2979,84 @@
       </rPr>
       <t>乘）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰りよる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえりよる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回去的路上顺便去）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>間に合わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まにあわない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（赶不上了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出発</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅっぱつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目と鼻の先だ</t>
+  </si>
+  <si>
+    <t>めとはなのさき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（近在咫尺）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その他：除此之外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回る：まわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡る：めぐる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲る：まがる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3417,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A4099-E104-4D40-ACC8-DFB3AF02A6D2}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3665,6 +3743,9 @@
       <c r="N11" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
@@ -3685,6 +3766,9 @@
       <c r="N12" t="s">
         <v>283</v>
       </c>
+      <c r="O12" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -3717,6 +3801,9 @@
       <c r="N13" s="1" t="s">
         <v>365</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C14" s="2" t="s">
@@ -3771,6 +3858,9 @@
       <c r="N16" t="s">
         <v>402</v>
       </c>
+      <c r="O16" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
@@ -3812,6 +3902,15 @@
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>670</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>590</v>
@@ -4802,10 +4901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61569998-1771-4F04-B2BD-E982DB6F687B}">
-  <dimension ref="A2:L18"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4815,6 +4914,7 @@
     <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4894,10 +4994,13 @@
         <v>274</v>
       </c>
       <c r="H5" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>582</v>
+        <v>663</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4914,10 +5017,13 @@
         <v>276</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>391</v>
+        <v>665</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>392</v>
+        <v>666</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4937,13 +5043,10 @@
         <v>301</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>386</v>
+        <v>668</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="L7" t="s">
-        <v>613</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4959,14 +5062,11 @@
       <c r="E8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>583</v>
+      <c r="H8" t="s">
+        <v>581</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -4983,10 +5083,10 @@
         <v>455</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5003,13 +5103,13 @@
         <v>457</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="L10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5026,13 +5126,13 @@
         <v>459</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>477</v>
+        <v>583</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="K11" t="s">
-        <v>615</v>
+        <v>584</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5049,10 +5149,10 @@
         <v>461</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>486</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5069,10 +5169,13 @@
         <v>463</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>490</v>
+        <v>400</v>
+      </c>
+      <c r="L13" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5083,13 +5186,13 @@
         <v>465</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="J14" t="s">
-        <v>551</v>
+        <v>477</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K14" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5100,13 +5203,10 @@
         <v>467</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>597</v>
+        <v>485</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>599</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5117,13 +5217,13 @@
         <v>494</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>651</v>
+        <v>489</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="18" x14ac:dyDescent="0.45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="18" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
         <v>491</v>
       </c>
@@ -5131,13 +5231,16 @@
         <v>492</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="18" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="J17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="18" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
         <v>649</v>
       </c>
@@ -5145,9 +5248,36 @@
         <v>650</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H19" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H20" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H21" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>492</v>
       </c>
     </row>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A69CF-3A6F-4856-B5F6-B6B7F6982E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A4D5FA-249C-4FD4-891B-0688110AEE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="692">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3057,6 +3057,66 @@
   </si>
   <si>
     <t>曲る：まがる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わき見運転</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わきみうんてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（开车东张西望走神）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表通り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おもてどおり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要街道，大马路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裏通り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うらどおり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小巷子，小胡同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎゃく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>順番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅんばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅと</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3495,8 +3555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A4099-E104-4D40-ACC8-DFB3AF02A6D2}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3526,6 +3586,12 @@
       <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="s">
@@ -3541,13 +3607,10 @@
         <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>688</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>365</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3576,10 +3639,10 @@
         <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
+        <v>626</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>365</v>
@@ -3606,13 +3669,13 @@
         <v>31</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>283</v>
+        <v>45</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3629,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3646,13 +3709,13 @@
         <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>368</v>
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>366</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>57</v>
@@ -3680,14 +3743,14 @@
       <c r="I8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L8" t="s">
-        <v>42</v>
+      <c r="L8" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" t="s">
-        <v>367</v>
+        <v>55</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>51</v>
@@ -3703,11 +3766,14 @@
       <c r="I9" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>241</v>
+      <c r="L9" t="s">
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>242</v>
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3718,10 +3784,10 @@
         <v>419</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3735,13 +3801,10 @@
         <v>418</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>676</v>
@@ -3758,13 +3821,13 @@
         <v>421</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" t="s">
-        <v>283</v>
+        <v>127</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="O12" t="s">
         <v>674</v>
@@ -3793,13 +3856,13 @@
         <v>423</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>363</v>
+        <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>365</v>
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>283</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>675</v>
@@ -3816,13 +3879,13 @@
         <v>450</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="N14" t="s">
-        <v>390</v>
+        <v>364</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3836,10 +3899,13 @@
         <v>520</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>354</v>
+        <v>389</v>
+      </c>
+      <c r="N15" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3850,13 +3916,10 @@
         <v>648</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="N16" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="O16" t="s">
         <v>673</v>
@@ -3873,13 +3936,13 @@
         <v>656</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>22</v>
+        <v>401</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>23</v>
+        <v>403</v>
       </c>
       <c r="N17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -3893,10 +3956,13 @@
         <v>658</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>588</v>
+        <v>22</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>589</v>
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -3913,10 +3979,10 @@
         <v>672</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.45">
@@ -3924,14 +3990,20 @@
         <v>74</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
@@ -3970,10 +4042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4893,6 +4965,14 @@
         <v>637</v>
       </c>
     </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4901,10 +4981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61569998-1771-4F04-B2BD-E982DB6F687B}">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5179,6 +5259,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>464</v>
       </c>
@@ -5196,6 +5282,15 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C15" t="s">
+        <v>682</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>466</v>
       </c>
@@ -5210,6 +5305,15 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C16" t="s">
+        <v>685</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>493</v>
       </c>
@@ -5279,6 +5383,17 @@
       </c>
       <c r="I21" s="1" t="s">
         <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H22" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="J22" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A4D5FA-249C-4FD4-891B-0688110AEE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1BE6DD-B4F0-467E-842F-A53A79D45F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="709">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3117,6 +3117,86 @@
   </si>
   <si>
     <t>しゅと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長距離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうきょり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突き当り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つきあたり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路的尽头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗り過ごす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のりすごす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐过站了）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罰金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばっきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はなび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花火大会｜はなびたいかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>広場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひろば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クリーニング</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（洗衣店）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3260,7 +3340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3273,6 +3353,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3556,7 +3637,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4042,10 +4123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4606,6 +4687,13 @@
       <c r="F21" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
@@ -4620,15 +4708,6 @@
       <c r="F22" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="O22" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
@@ -4637,6 +4716,15 @@
       <c r="B23" s="1" t="s">
         <v>570</v>
       </c>
+      <c r="M23" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O23" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
@@ -4971,6 +5059,22 @@
       </c>
       <c r="B49" s="1" t="s">
         <v>691</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -4981,10 +5085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61569998-1771-4F04-B2BD-E982DB6F687B}">
-  <dimension ref="A2:L22"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5073,14 +5177,14 @@
       <c r="E5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H5" t="s">
-        <v>662</v>
+      <c r="H5" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>664</v>
+        <v>698</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5096,14 +5200,14 @@
       <c r="E6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>665</v>
+      <c r="H6" t="s">
+        <v>662</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5123,10 +5227,13 @@
         <v>301</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5142,11 +5249,11 @@
       <c r="E8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H8" t="s">
-        <v>581</v>
+      <c r="H8" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5162,11 +5269,11 @@
       <c r="E9" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>391</v>
+      <c r="H9" t="s">
+        <v>581</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>392</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5183,10 +5290,10 @@
         <v>457</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L10" t="s">
         <v>613</v>
@@ -5206,10 +5313,10 @@
         <v>459</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>583</v>
+        <v>386</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>584</v>
+        <v>387</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>614</v>
@@ -5229,10 +5336,10 @@
         <v>461</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>397</v>
+        <v>583</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>398</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5249,10 +5356,10 @@
         <v>463</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L13" t="s">
         <v>616</v>
@@ -5272,10 +5379,10 @@
         <v>465</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>477</v>
+        <v>399</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>478</v>
+        <v>400</v>
       </c>
       <c r="K14" t="s">
         <v>615</v>
@@ -5298,10 +5405,10 @@
         <v>467</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5321,13 +5428,22 @@
         <v>494</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" ht="18" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C17" t="s">
+        <v>696</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>491</v>
       </c>
@@ -5335,16 +5451,19 @@
         <v>492</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="J17" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="18" x14ac:dyDescent="0.45">
+        <v>489</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>701</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>649</v>
       </c>
@@ -5352,48 +5471,67 @@
         <v>650</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="J18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H19" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="H19" s="1" t="s">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H20" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="20" spans="4:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="H20" s="1" t="s">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H21" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="21" spans="4:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="H21" s="1" t="s">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H22" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="4:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="H22" s="1" t="s">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H23" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" t="s">
         <v>679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="H24" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -5657,10 +5795,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16E99B6-C8E9-4718-AE00-BC0A25161C6A}">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5735,6 +5873,17 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1BE6DD-B4F0-467E-842F-A53A79D45F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36B479E-B97D-4E21-ACBB-BDAE97C285D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="720">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3197,6 +3197,50 @@
   </si>
   <si>
     <t>（洗衣店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庫｜こ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歓迎会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんげいかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かおく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宴会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんかい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3636,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A4099-E104-4D40-ACC8-DFB3AF02A6D2}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3882,13 +3926,10 @@
         <v>418</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>52</v>
+        <v>709</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3902,16 +3943,13 @@
         <v>421</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="O12" t="s">
-        <v>674</v>
+        <v>53</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3937,16 +3975,16 @@
         <v>423</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" t="s">
-        <v>283</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>675</v>
+        <v>127</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3968,6 +4006,9 @@
       <c r="N14" s="1" t="s">
         <v>365</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
@@ -4002,11 +4043,8 @@
       <c r="M16" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="O16" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
@@ -4025,8 +4063,11 @@
       <c r="N17" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+      <c r="O17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>59</v>
       </c>
@@ -4046,7 +4087,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -4066,7 +4107,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -4077,7 +4118,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="L21" s="1" t="s">
         <v>592</v>
@@ -4086,7 +4127,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>522</v>
       </c>
@@ -4099,7 +4140,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>564</v>
       </c>
@@ -4107,7 +4148,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>566</v>
       </c>
@@ -4123,10 +4164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4377,11 +4418,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>53</v>
+      <c r="A8" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>92</v>
@@ -4407,11 +4448,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>510</v>
+      <c r="A9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>575</v>
@@ -4437,10 +4478,10 @@
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>383</v>
@@ -4464,10 +4505,10 @@
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>471</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>424</v>
@@ -4484,10 +4525,10 @@
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>645</v>
+        <v>255</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>646</v>
+        <v>256</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>426</v>
@@ -4504,10 +4545,10 @@
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>170</v>
+        <v>645</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>646</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>495</v>
@@ -4518,10 +4559,10 @@
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>533</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>534</v>
+        <v>171</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>221</v>
@@ -4535,10 +4576,10 @@
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>534</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>122</v>
@@ -4558,10 +4599,10 @@
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>341</v>
@@ -4575,10 +4616,10 @@
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>537</v>
@@ -4604,10 +4645,10 @@
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>536</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>579</v>
@@ -4627,10 +4668,10 @@
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>535</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>638</v>
@@ -4653,10 +4694,10 @@
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>501</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>502</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>217</v>
@@ -4676,10 +4717,10 @@
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>501</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>502</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>219</v>
@@ -4697,10 +4738,10 @@
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>571</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>572</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>332</v>
@@ -4711,10 +4752,10 @@
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>313</v>
+        <v>571</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>349</v>
@@ -4728,10 +4769,10 @@
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>315</v>
+        <v>570</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>213</v>
@@ -4748,10 +4789,10 @@
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>97</v>
@@ -4763,10 +4804,10 @@
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>499</v>
+        <v>372</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>181</v>
@@ -4776,11 +4817,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>553</v>
+      <c r="A27" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>170</v>
@@ -4789,31 +4830,31 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>554</v>
+    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>552</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C28" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>236</v>
@@ -4827,10 +4868,10 @@
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>243</v>
@@ -4841,10 +4882,10 @@
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>252</v>
@@ -4855,10 +4896,10 @@
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>577</v>
@@ -4869,18 +4910,18 @@
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>288</v>
+        <v>395</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>111</v>
@@ -4894,10 +4935,10 @@
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
         <v>362</v>
@@ -4914,18 +4955,18 @@
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>475</v>
+        <v>360</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>476</v>
+        <v>361</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>334</v>
@@ -4939,10 +4980,10 @@
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>330</v>
@@ -4951,23 +4992,23 @@
         <v>331</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C40" t="s">
-        <v>544</v>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
+      </c>
+      <c r="C41" t="s">
+        <v>544</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>568</v>
@@ -4975,16 +5016,16 @@
       <c r="F41" s="1" t="s">
         <v>569</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C42" t="s">
-        <v>596</v>
+      <c r="A42" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>543</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>69</v>
@@ -4995,87 +5036,112 @@
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="C43" t="s">
-        <v>629</v>
+        <v>596</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>611</v>
+        <v>595</v>
+      </c>
+      <c r="C44" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>690</v>
+        <v>636</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>691</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>594</v>
+        <v>705</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>595</v>
-      </c>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5088,7 +5154,7 @@
   <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H17" sqref="H17:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5545,7 +5611,7 @@
   <dimension ref="A3:N14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36B479E-B97D-4E21-ACBB-BDAE97C285D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEF000D-21D7-42F4-BCB9-261CF237FA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="721">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,10 +815,6 @@
   </si>
   <si>
     <t>交通機関</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>こうつうきかｎ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3241,6 +3237,33 @@
   </si>
   <si>
     <t>えんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门牌号）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうつうきかん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3680,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A4099-E104-4D40-ACC8-DFB3AF02A6D2}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3701,7 +3724,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3712,10 +3735,10 @@
         <v>94</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3723,7 +3746,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
@@ -3732,10 +3755,10 @@
         <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3767,10 +3790,10 @@
         <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -3785,7 +3808,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
@@ -3800,18 +3823,18 @@
         <v>45</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>32</v>
@@ -3823,7 +3846,7 @@
         <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3840,7 +3863,7 @@
         <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>57</v>
@@ -3860,7 +3883,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>124</v>
@@ -3875,7 +3898,7 @@
         <v>55</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>51</v>
@@ -3883,13 +3906,13 @@
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="F9" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="L9" t="s">
         <v>42</v>
@@ -3898,21 +3921,21 @@
         <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="H10" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3920,16 +3943,16 @@
         <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="L11" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3937,10 +3960,10 @@
         <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>52</v>
@@ -3949,7 +3972,7 @@
         <v>53</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3969,10 +3992,10 @@
         <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>126</v>
@@ -3984,7 +4007,7 @@
         <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -3992,22 +4015,22 @@
         <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="L14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -4015,33 +4038,33 @@
         <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="L15" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" t="s">
         <v>389</v>
-      </c>
-      <c r="N15" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="H16" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="L16" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4049,22 +4072,22 @@
         <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="L17" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="N17" t="s">
         <v>401</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="N17" t="s">
-        <v>402</v>
-      </c>
       <c r="O17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4072,10 +4095,10 @@
         <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>22</v>
@@ -4084,7 +4107,7 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4092,19 +4115,19 @@
         <v>60</v>
       </c>
       <c r="H19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="L19" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4112,48 +4135,48 @@
         <v>74</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="L21" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>523</v>
-      </c>
-      <c r="C22" t="s">
-        <v>524</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -4166,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4190,29 +4213,29 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" t="s">
         <v>472</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>473</v>
       </c>
-      <c r="C1" t="s">
-        <v>474</v>
-      </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N1" s="1"/>
       <c r="Q1" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>547</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -4223,44 +4246,44 @@
         <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>538</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>539</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>120</v>
@@ -4269,109 +4292,109 @@
         <v>121</v>
       </c>
       <c r="I3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" t="s">
         <v>187</v>
       </c>
-      <c r="J3" t="s">
-        <v>188</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="Q3" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>545</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="Q4" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>558</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="Q5" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>560</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -4381,48 +4404,48 @@
         <v>73</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>92</v>
@@ -4431,20 +4454,20 @@
         <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -4455,106 +4478,106 @@
         <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="I9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="I10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="M11" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="M12" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="M13" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -4565,21 +4588,21 @@
         <v>171</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="G14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>122</v>
@@ -4594,7 +4617,7 @@
         <v>109</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.45">
@@ -4605,13 +4628,13 @@
         <v>83</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="O16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4622,25 +4645,25 @@
         <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="G17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" t="s">
         <v>344</v>
-      </c>
-      <c r="O17" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4651,45 +4674,45 @@
         <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="M18" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" t="s">
         <v>370</v>
-      </c>
-      <c r="O18" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>536</v>
-      </c>
       <c r="C19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="11" t="s">
         <v>640</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4700,40 +4723,40 @@
         <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="M20" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="O21" s="12" t="s">
         <v>707</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4744,55 +4767,55 @@
         <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="M23" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="O23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>97</v>
@@ -4804,24 +4827,24 @@
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>170</v>
@@ -4832,38 +4855,38 @@
     </row>
     <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>553</v>
-      </c>
       <c r="C28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>554</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4874,54 +4897,54 @@
         <v>114</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E32" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E33" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>111</v>
@@ -4930,102 +4953,102 @@
         <v>110</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" t="s">
         <v>262</v>
-      </c>
-      <c r="G36" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="E38" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="E39" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>541</v>
-      </c>
       <c r="C41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>543</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>69</v>
@@ -5036,110 +5059,113 @@
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="C43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="C44" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="E45" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="E46" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="E47" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="C49" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
@@ -5153,8 +5179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61569998-1771-4F04-B2BD-E982DB6F687B}">
   <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5172,47 +5198,47 @@
         <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>720</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>120</v>
@@ -5221,125 +5247,125 @@
         <v>121</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="H5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="H6" t="s">
+        <v>661</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="11" t="s">
         <v>663</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="H8" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="H9" t="s">
+        <v>580</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.45">
@@ -5350,254 +5376,254 @@
         <v>171</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="H10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="L10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="H11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="H12" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="D13" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="L13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="H14" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="K14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
         <v>681</v>
       </c>
-      <c r="C15" t="s">
-        <v>682</v>
-      </c>
       <c r="D15" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="H15" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>684</v>
       </c>
-      <c r="C16" t="s">
-        <v>685</v>
-      </c>
       <c r="D16" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="H16" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>695</v>
       </c>
-      <c r="C17" t="s">
-        <v>696</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="H17" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="H18" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" t="s">
         <v>550</v>
-      </c>
-      <c r="J18" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="H19" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="H20" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="H21" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="H22" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="H23" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" t="s">
         <v>678</v>
-      </c>
-      <c r="J23" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="H24" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -5624,16 +5650,16 @@
   <sheetData>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>71</v>
@@ -5642,18 +5668,18 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
+        <v>446</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>75</v>
@@ -5665,27 +5691,27 @@
         <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" t="s">
         <v>433</v>
-      </c>
-      <c r="N4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>107</v>
@@ -5694,163 +5720,163 @@
         <v>106</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="K5" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="K6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="H8" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
         <v>381</v>
-      </c>
-      <c r="F9" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>601</v>
-      </c>
-      <c r="C14" t="s">
-        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -5876,80 +5902,80 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
         <v>225</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>226</v>
-      </c>
-      <c r="C2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -6012,10 +6038,10 @@
         <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -6026,10 +6052,10 @@
         <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -6040,10 +6066,10 @@
         <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -6054,10 +6080,10 @@
         <v>162</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -6068,10 +6094,10 @@
         <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -6082,10 +6108,10 @@
         <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
@@ -6098,7 +6124,7 @@
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>167</v>
@@ -6313,10 +6339,10 @@
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
@@ -6329,74 +6355,74 @@
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.45">
@@ -6409,39 +6435,39 @@
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -6462,10 +6488,10 @@
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEF000D-21D7-42F4-BCB9-261CF237FA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EB7FA-3708-4A11-9D65-0D200D2F55A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1656" windowWidth="14928" windowHeight="11304" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="726">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3264,6 +3264,26 @@
   </si>
   <si>
     <t>こうつうきかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境界線｜きょうかいせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうがい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3703,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A4099-E104-4D40-ACC8-DFB3AF02A6D2}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4162,6 +4182,12 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
@@ -4187,10 +4213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5166,8 +5192,23 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>723</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5179,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61569998-1771-4F04-B2BD-E982DB6F687B}">
   <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A6:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EB7FA-3708-4A11-9D65-0D200D2F55A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE4011-8FBE-4A8D-A1D6-8C58B5F12CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1656" windowWidth="14928" windowHeight="11304" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方向（ほうこう）" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="730">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3284,6 +3284,22 @@
   </si>
   <si>
     <t>こうがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>収容所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうようしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳥籠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とりかご</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3724,7 +3740,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:N25"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4215,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:C53"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4432,6 +4448,12 @@
       <c r="K6" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -4897,6 +4919,15 @@
       <c r="B29" s="10" t="s">
         <v>554</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
@@ -4906,13 +4937,10 @@
         <v>555</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4923,10 +4951,10 @@
         <v>114</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.45">
@@ -4937,10 +4965,10 @@
         <v>208</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>251</v>
+        <v>726</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>252</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE4011-8FBE-4A8D-A1D6-8C58B5F12CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D98E7C-CA28-466D-AB8B-2DB611BF1837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="741">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3300,6 +3300,68 @@
   </si>
   <si>
     <t>とりかご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便乗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びんじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減速</t>
+  </si>
+  <si>
+    <t>げんそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居場所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いばしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安身之处）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>領域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょういき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4229,10 +4291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5238,6 +5300,25 @@
         <v>723</v>
       </c>
     </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5246,10 +5327,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61569998-1771-4F04-B2BD-E982DB6F687B}">
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:C19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5606,10 +5687,10 @@
         <v>695</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>490</v>
+        <v>648</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>491</v>
+        <v>649</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>488</v>
@@ -5626,10 +5707,10 @@
         <v>700</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>548</v>
@@ -5642,6 +5723,12 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>596</v>
       </c>
@@ -5653,46 +5740,50 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="D20" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>651</v>
+        <v>677</v>
+      </c>
+      <c r="J20" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="D21" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="H22" s="1" t="s">
-        <v>490</v>
+      <c r="H22" t="s">
+        <v>732</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>491</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.45">
       <c r="H23" s="1" t="s">
-        <v>676</v>
+        <v>734</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="J23" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="H24" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>692</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>

--- a/地点（ちてん）.xlsx
+++ b/地点（ちてん）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D98E7C-CA28-466D-AB8B-2DB611BF1837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAFF97F-6DDB-49DC-9C08-5F24A3420523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="749">
   <si>
     <t>大阪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3362,6 +3362,38 @@
   </si>
   <si>
     <t>りょういき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうてい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛍光灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいこうとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ものおき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置き｜おき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4291,10 +4323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656ED0F3-B481-4EF4-ABEC-B52E455F8655}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5254,7 +5286,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>635</v>
       </c>
@@ -5264,8 +5296,17 @@
       <c r="C49" s="11" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="E49" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>689</v>
       </c>
@@ -5273,7 +5314,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>704</v>
       </c>
@@ -5281,7 +5322,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>724</v>
       </c>
@@ -5289,7 +5330,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>721</v>
       </c>
@@ -5300,7 +5341,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>736</v>
       </c>
@@ -5311,12 +5352,20 @@
         <v>738</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>740</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -5329,8 +5378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61569998-1771-4F04-B2BD-E982DB6F687B}">
   <dimension ref="A2:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5794,10 +5843,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B46E90B-297E-4330-9BFC-5AD6A4D82081}">
-  <dimension ref="A3:N14"/>
+  <dimension ref="A3:N15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6011,6 +6060,12 @@
       <c r="B11" s="1" t="s">
         <v>505</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -6037,6 +6092,14 @@
       </c>
       <c r="C14" t="s">
         <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
